--- a/scenarios_and_results/Scenario_low_discount_A_par_stagnant_wind_and_solar.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_A_par_stagnant_wind_and_solar.xlsx
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0009472041153795815</v>
       </c>
       <c r="K9">
         <v>0.0003953222684548449</v>
       </c>
       <c r="L9">
-        <v>0.0003953222684548449</v>
+        <v>0.001342526383834426</v>
       </c>
       <c r="M9">
         <v>0.0009973579260895121</v>
@@ -1760,7 +1760,7 @@
         <v>0.1267058552739888</v>
       </c>
       <c r="P9">
-        <v>10.99144306735332</v>
+        <v>18.46705746047941</v>
       </c>
       <c r="Q9">
         <v>0.7425254440148349</v>
@@ -1781,7 +1781,7 @@
         <v>18.46705746047892</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>7.475614393126089</v>
       </c>
       <c r="X9">
         <v>3.12</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.000178188694932143</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.000178188694932143</v>
       </c>
       <c r="M10">
         <v>0.0007065964505144055</v>
@@ -1837,7 +1837,7 @@
         <v>0.01028535848833502</v>
       </c>
       <c r="P10">
-        <v>68.6992535375195</v>
+        <v>86.02375371262113</v>
       </c>
       <c r="Q10">
         <v>0.1291597833065001</v>
@@ -1858,7 +1858,7 @@
         <v>86.02375371260491</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>17.32450017510163</v>
       </c>
       <c r="X10">
         <v>0</v>
